--- a/data/outputs/management_elsevier/87.xlsx
+++ b/data/outputs/management_elsevier/87.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS20"/>
+  <dimension ref="A1:BU20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +935,12 @@
           <t>2-s2.0-84947599071</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>293</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1142,12 @@
           <t>2-s2.0-84947569319</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>531</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1361,12 @@
           <t>2-s2.0-84947550775</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2831</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1576,12 @@
           <t>2-s2.0-84947548275</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>669</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1748,6 +1782,12 @@
         <is>
           <t>2-s2.0-84947577757</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>606</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1938,6 +1978,12 @@
           <t>2-s2.0-84947607303</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>309</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2145,6 +2191,12 @@
           <t>2-s2.0-84938784193</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>916</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2362,6 +2414,12 @@
           <t>2-s2.0-84938770337</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2108</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2563,6 +2621,12 @@
           <t>2-s2.0-84938796097</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1098</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2772,6 +2836,12 @@
           <t>2-s2.0-84938787479</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1095</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2985,6 +3055,12 @@
           <t>2-s2.0-84930268177</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1679</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3200,6 +3276,12 @@
           <t>2-s2.0-84930251402</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>5035</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3411,6 +3493,12 @@
           <t>2-s2.0-84930245609</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2928</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3620,6 +3708,12 @@
           <t>2-s2.0-84930254898</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1523</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3829,6 +3923,12 @@
           <t>2-s2.0-84923321453</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1992</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4048,6 +4148,12 @@
           <t>2-s2.0-84923328169</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2225</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4257,6 +4363,12 @@
           <t>2-s2.0-84923341908</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>913</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4460,6 +4572,12 @@
           <t>2-s2.0-84923335362</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2941</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4665,6 +4783,12 @@
           <t>2-s2.0-84923365345</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1417</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
